--- a/data/ages_errors_calculated.xlsx
+++ b/data/ages_errors_calculated.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C508"/>
+  <dimension ref="A1:C560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6592 +490,7268 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.0688884246</v>
+        <v>3025.641855434486</v>
       </c>
       <c r="C2" t="n">
-        <v>4.912669334080153</v>
+        <v>110.8557826388455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.2595947514</v>
+        <v>2671.730132763171</v>
       </c>
       <c r="C3" t="n">
-        <v>6.286072644687937</v>
+        <v>95.17464794066109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.2595947514</v>
+        <v>2518.108156089402</v>
       </c>
       <c r="C4" t="n">
-        <v>5.69062478182282</v>
+        <v>109.6019602496781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.89524176490001</v>
+        <v>2697.108608896615</v>
       </c>
       <c r="C5" t="n">
-        <v>5.569924844827295</v>
+        <v>75.36291176269742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.89524176490001</v>
+        <v>2676.137963352323</v>
       </c>
       <c r="C6" t="n">
-        <v>5.231354581405552</v>
+        <v>98.74200783318838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.89524176490001</v>
+        <v>2810.456383942319</v>
       </c>
       <c r="C7" t="n">
-        <v>6.563194148635343</v>
+        <v>118.4536642819335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.89524176490001</v>
+        <v>2625.978099896781</v>
       </c>
       <c r="C8" t="n">
-        <v>7.004262282001498</v>
+        <v>108.6739260764975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.89524176490001</v>
+        <v>2595.576512930777</v>
       </c>
       <c r="C9" t="n">
-        <v>5.231354581405552</v>
+        <v>107.0459836478208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.53082610680001</v>
+        <v>2649.485144761677</v>
       </c>
       <c r="C10" t="n">
-        <v>5.816604762599681</v>
+        <v>112.9405827999985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.53082610680001</v>
+        <v>2228.614742681012</v>
       </c>
       <c r="C11" t="n">
-        <v>7.071876768658442</v>
+        <v>117.9817140112268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91.53082610680001</v>
+        <v>1928.725704480579</v>
       </c>
       <c r="C12" t="n">
-        <v>7.533425948189659</v>
+        <v>130.0985633321147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.53082610680001</v>
+        <v>1806.028675557509</v>
       </c>
       <c r="C13" t="n">
-        <v>6.847897402297791</v>
+        <v>117.141020851551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.53082610680001</v>
+        <v>1717.081503331234</v>
       </c>
       <c r="C14" t="n">
-        <v>8.253972284400334</v>
+        <v>133.1890349125001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.53082610680001</v>
+        <v>2493.3310514613</v>
       </c>
       <c r="C15" t="n">
-        <v>5.816604762599681</v>
+        <v>94.35483232177148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.53082610680001</v>
+        <v>2597.437477146128</v>
       </c>
       <c r="C16" t="n">
-        <v>7.300528079362138</v>
+        <v>99.75483633530575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.7850422982</v>
+        <v>1717.081503331234</v>
       </c>
       <c r="C17" t="n">
-        <v>4.615706830823746</v>
+        <v>124.526004408581</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.16634778940001</v>
+        <v>1715.383233187335</v>
       </c>
       <c r="C18" t="n">
-        <v>6.914949753034598</v>
+        <v>157.2657258338172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.16634778940001</v>
+        <v>1706.16791711807</v>
       </c>
       <c r="C19" t="n">
-        <v>5.520520443009858</v>
+        <v>80.48215155500907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.16634778940001</v>
+        <v>2103.409787396366</v>
       </c>
       <c r="C20" t="n">
-        <v>5.520520443009858</v>
+        <v>111.1724516146421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.16634778940001</v>
+        <v>1640.46984227073</v>
       </c>
       <c r="C21" t="n">
-        <v>5.520520443009858</v>
+        <v>126.0307184631004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.35699207739999</v>
+        <v>1801.22415217026</v>
       </c>
       <c r="C22" t="n">
-        <v>5.065537757010456</v>
+        <v>117.6947792444903</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.801806825</v>
+        <v>1566.131691269832</v>
       </c>
       <c r="C23" t="n">
-        <v>8.400755603432991</v>
+        <v>89.08606429433667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.801806825</v>
+        <v>1484.723642626371</v>
       </c>
       <c r="C24" t="n">
-        <v>5.583572020415343</v>
+        <v>72.89682894334192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.801806825</v>
+        <v>1438.991446359949</v>
       </c>
       <c r="C25" t="n">
-        <v>7.438658062967681</v>
+        <v>65.36213323617312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.801806825</v>
+        <v>1399.161920065564</v>
       </c>
       <c r="C26" t="n">
-        <v>5.759144243172991</v>
+        <v>63.53615507152927</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>92.801806825</v>
+        <v>1362.216635349989</v>
       </c>
       <c r="C27" t="n">
-        <v>5.944104594881264</v>
+        <v>61.69878045858877</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.801806825</v>
+        <v>1331.878051094671</v>
       </c>
       <c r="C28" t="n">
-        <v>7.208106379813849</v>
+        <v>61.1877240847557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.801806825</v>
+        <v>1256.46202932721</v>
       </c>
       <c r="C29" t="n">
-        <v>6.137604387333237</v>
+        <v>55.84849024431924</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92.801806825</v>
+        <v>1250.093103212641</v>
       </c>
       <c r="C30" t="n">
-        <v>6.547161036162455</v>
+        <v>60.52429964399244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.801806825</v>
+        <v>1235.207759567013</v>
       </c>
       <c r="C31" t="n">
-        <v>7.438658062967681</v>
+        <v>55.60464175720676</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.11951285409999</v>
+        <v>1215.484973703747</v>
       </c>
       <c r="C32" t="n">
-        <v>4.900789083571342</v>
+        <v>54.63629121390545</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>93.4372032261</v>
+        <v>1212.81509824501</v>
       </c>
       <c r="C33" t="n">
-        <v>6.828772134222238</v>
+        <v>59.35080518320683</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.4372032261</v>
+        <v>1158.106870190742</v>
       </c>
       <c r="C34" t="n">
-        <v>6.404343910680051</v>
+        <v>52.22435036314573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.4372032261</v>
+        <v>1157.568210144834</v>
       </c>
       <c r="C35" t="n">
-        <v>6.828772134222238</v>
+        <v>55.63528077319802</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93.4372032261</v>
+        <v>1146.245939193224</v>
       </c>
       <c r="C36" t="n">
-        <v>6.404343910680051</v>
+        <v>54.52495404675165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.7548779426</v>
+        <v>1134.363144702277</v>
       </c>
       <c r="C37" t="n">
-        <v>5.419050567707441</v>
+        <v>53.76861146266629</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.072537005</v>
+        <v>1099.669947308048</v>
       </c>
       <c r="C38" t="n">
-        <v>10.35962182460349</v>
+        <v>54.41062858732266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>94.072537005</v>
+        <v>1099.669947308048</v>
       </c>
       <c r="C39" t="n">
-        <v>6.267711135701605</v>
+        <v>57.34487634004722</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.072537005</v>
+        <v>1092.600019207197</v>
       </c>
       <c r="C40" t="n">
-        <v>5.710854817851041</v>
+        <v>48.59750758219388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>94.072537005</v>
+        <v>1089.334358449109</v>
       </c>
       <c r="C41" t="n">
-        <v>7.118163650895467</v>
+        <v>50.53885414608749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>94.072537005</v>
+        <v>1087.700907498079</v>
       </c>
       <c r="C42" t="n">
-        <v>7.814985085127153</v>
+        <v>51.02218155181299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.072537005</v>
+        <v>1086.611710191152</v>
       </c>
       <c r="C43" t="n">
-        <v>5.710854817851041</v>
+        <v>48.68106229429486</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94.072537005</v>
+        <v>1083.343013677546</v>
       </c>
       <c r="C44" t="n">
-        <v>6.470193312136443</v>
+        <v>73.91419616947769</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>94.072537005</v>
+        <v>1081.162961509333</v>
       </c>
       <c r="C45" t="n">
-        <v>7.345676064538722</v>
+        <v>49.25737399867512</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.072537005</v>
+        <v>1073.526967851052</v>
       </c>
       <c r="C46" t="n">
-        <v>8.055949600727288</v>
+        <v>52.098070331754</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>94.072537005</v>
+        <v>1066.974623538134</v>
       </c>
       <c r="C47" t="n">
-        <v>5.544922704895541</v>
+        <v>54.82709309637653</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>94.072537005</v>
+        <v>1064.789027940815</v>
       </c>
       <c r="C48" t="n">
-        <v>6.896044292375541</v>
+        <v>49.88986763400555</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>94.072537005</v>
+        <v>1063.695952198387</v>
       </c>
       <c r="C49" t="n">
-        <v>6.679855997343878</v>
+        <v>48.08136280649967</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>94.2631249292</v>
+        <v>1062.602691066998</v>
       </c>
       <c r="C50" t="n">
-        <v>5.003317722594757</v>
+        <v>47.11107227712932</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>94.51723339660001</v>
+        <v>1058.227791566828</v>
       </c>
       <c r="C51" t="n">
-        <v>5.226514709799571</v>
+        <v>49.77124531811114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>94.70780817399999</v>
+        <v>1058.227791566828</v>
       </c>
       <c r="C52" t="n">
-        <v>8.128169698312597</v>
+        <v>47.96681377714981</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>94.70780817399999</v>
+        <v>1055.491970872885</v>
       </c>
       <c r="C53" t="n">
-        <v>6.138211529278226</v>
+        <v>49.78866666243175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>94.70780817399999</v>
+        <v>1051.112241322637</v>
       </c>
       <c r="C54" t="n">
-        <v>7.886174524260306</v>
+        <v>49.98425381696347</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>94.70780817399999</v>
+        <v>1043.988828273083</v>
       </c>
       <c r="C55" t="n">
-        <v>6.963668983325014</v>
+        <v>50.7276897049228</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>94.70780817399999</v>
+        <v>1043.988828273083</v>
       </c>
       <c r="C56" t="n">
-        <v>7.886174524260306</v>
+        <v>47.35389312112761</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>94.70780817399999</v>
+        <v>1042.343845274046</v>
       </c>
       <c r="C57" t="n">
-        <v>7.648307394122605</v>
+        <v>47.38192292646545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>94.89837731759999</v>
+        <v>1040.698442397719</v>
       </c>
       <c r="C58" t="n">
-        <v>5.596158880607423</v>
+        <v>46.72936912533339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>94.9618991136</v>
+        <v>1034.112627915748</v>
       </c>
       <c r="C59" t="n">
-        <v>5.406796578649524</v>
+        <v>55.42768487267517</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>95.0889408278</v>
+        <v>2212.932153235949</v>
       </c>
       <c r="C60" t="n">
-        <v>5.405404431638487</v>
+        <v>151.4648637619553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>95.34301674540001</v>
+        <v>1021.470979488511</v>
       </c>
       <c r="C61" t="n">
-        <v>7.255361632648391</v>
+        <v>47.3912518884739</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>95.34301674540001</v>
+        <v>1017.618595422644</v>
       </c>
       <c r="C62" t="n">
-        <v>9.467051357832462</v>
+        <v>56.66381697708914</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>95.34301674540001</v>
+        <v>1012.111192967501</v>
       </c>
       <c r="C63" t="n">
-        <v>6.39931736434297</v>
+        <v>53.16234152869038</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>95.34301674540001</v>
+        <v>1011.560193853325</v>
       </c>
       <c r="C64" t="n">
-        <v>7.718848632113753</v>
+        <v>46.72881245037945</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>95.34301674540001</v>
+        <v>1011.560193853325</v>
       </c>
       <c r="C65" t="n">
-        <v>7.255361632648391</v>
+        <v>46.341222890023</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>95.34301674540001</v>
+        <v>1006.599081323215</v>
       </c>
       <c r="C66" t="n">
-        <v>6.203677366242691</v>
+        <v>58.17145584002901</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>95.34301674540001</v>
+        <v>1002.185995959347</v>
       </c>
       <c r="C67" t="n">
-        <v>7.484592686478511</v>
+        <v>44.74275729025783</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>95.5970826495</v>
+        <v>997.7698874352548</v>
       </c>
       <c r="C68" t="n">
-        <v>5.13677204881265</v>
+        <v>46.43343783688158</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>95.7241118466</v>
+        <v>996.6653874417229</v>
       </c>
       <c r="C69" t="n">
-        <v>5.483779675313117</v>
+        <v>45.51402123745311</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>95.9781627317</v>
+        <v>995.5606981744957</v>
       </c>
       <c r="C70" t="n">
-        <v>6.881601759771237</v>
+        <v>56.06212738530189</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>95.9781627317</v>
+        <v>993.3507515682396</v>
       </c>
       <c r="C71" t="n">
-        <v>9.808597122975502</v>
+        <v>48.12412430691791</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>95.9781627317</v>
+        <v>986.7163624655038</v>
       </c>
       <c r="C72" t="n">
-        <v>6.465683961673135</v>
+        <v>46.03462899402325</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>95.9781627317</v>
+        <v>983.3966057142063</v>
       </c>
       <c r="C73" t="n">
-        <v>9.027591847393017</v>
+        <v>46.1292859959616</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>95.9781627317</v>
+        <v>982.8431466665512</v>
       </c>
       <c r="C74" t="n">
-        <v>6.465683961673135</v>
+        <v>48.28596127753372</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>95.9781627317</v>
+        <v>976.7519589867787</v>
       </c>
       <c r="C75" t="n">
-        <v>7.324479566847133</v>
+        <v>45.56944793006289</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>96.61324614500001</v>
+        <v>975.0897266147761</v>
       </c>
       <c r="C76" t="n">
-        <v>7.168665275223002</v>
+        <v>45.20008618108409</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>96.61324614500001</v>
+        <v>973.4270654985477</v>
       </c>
       <c r="C77" t="n">
-        <v>10.96738578760636</v>
+        <v>50.1120024277792</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>96.61324614500001</v>
+        <v>973.4270654985477</v>
       </c>
       <c r="C78" t="n">
-        <v>7.860923580145777</v>
+        <v>53.6896452338226</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>96.61324614500001</v>
+        <v>971.763975453724</v>
       </c>
       <c r="C79" t="n">
-        <v>8.848227323167444</v>
+        <v>46.6374610461022</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>96.61324614500001</v>
+        <v>962.8869083020163</v>
       </c>
       <c r="C80" t="n">
-        <v>7.168665275223002</v>
+        <v>45.73436270269212</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>96.61324614500001</v>
+        <v>951.217175552801</v>
       </c>
       <c r="C81" t="n">
-        <v>6.335756603609647</v>
+        <v>45.43866363010966</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>96.61324614500001</v>
+        <v>950.6609467032858</v>
       </c>
       <c r="C82" t="n">
-        <v>8.848227323167444</v>
+        <v>46.80308325021849</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>96.61324614500001</v>
+        <v>940.640611763489</v>
       </c>
       <c r="C83" t="n">
-        <v>7.39394446538186</v>
+        <v>49.08510562433912</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>96.61324614500001</v>
+        <v>939.5262791477904</v>
       </c>
       <c r="C84" t="n">
-        <v>6.148047604922802</v>
+        <v>44.00799571797404</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>96.61324614500001</v>
+        <v>937.2970358738992</v>
       </c>
       <c r="C85" t="n">
-        <v>8.595677695949695</v>
+        <v>43.31421114508021</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>97.2482669978</v>
+        <v>933.3940041979275</v>
       </c>
       <c r="C86" t="n">
-        <v>13.29904934935998</v>
+        <v>48.70283003346606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>97.2482669978</v>
+        <v>924.4639052031985</v>
       </c>
       <c r="C87" t="n">
-        <v>15.31959013897063</v>
+        <v>46.05681132056407</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>97.2482669978</v>
+        <v>923.3467725127558</v>
       </c>
       <c r="C88" t="n">
-        <v>7.017908412585898</v>
+        <v>62.25511361268332</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>97.2482669978</v>
+        <v>909.9260580558603</v>
       </c>
       <c r="C89" t="n">
-        <v>12.4471311500309</v>
+        <v>43.74124298101037</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>97.2482669978</v>
+        <v>898.7207463843057</v>
       </c>
       <c r="C90" t="n">
-        <v>8.174159048679279</v>
+        <v>41.58729638342572</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>97.88322530240001</v>
+        <v>892.5495126326838</v>
       </c>
       <c r="C91" t="n">
-        <v>8.246966393070187</v>
+        <v>41.25987123296011</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>97.88322530240001</v>
+        <v>883.5626133005723</v>
       </c>
       <c r="C92" t="n">
-        <v>8.493998003727905</v>
+        <v>43.58256928451794</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>97.88322530240001</v>
+        <v>881.8761740015099</v>
       </c>
       <c r="C93" t="n">
-        <v>9.257902276112357</v>
+        <v>44.63577475613261</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>97.88322530240001</v>
+        <v>876.8142073593003</v>
       </c>
       <c r="C94" t="n">
-        <v>5.934359471781158</v>
+        <v>41.50694262316802</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>97.88322530240001</v>
+        <v>868.3687532730519</v>
       </c>
       <c r="C95" t="n">
-        <v>5.823855475393929</v>
+        <v>38.6793274384961</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>97.88322530240001</v>
+        <v>839.0052181487562</v>
       </c>
       <c r="C96" t="n">
-        <v>8.246966393070187</v>
+        <v>43.06917164430604</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>97.88322530240001</v>
+        <v>837.8731759670698</v>
       </c>
       <c r="C97" t="n">
-        <v>11.69521383096304</v>
+        <v>40.81790669674479</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>98.5181210711</v>
+        <v>829.9433095236064</v>
       </c>
       <c r="C98" t="n">
-        <v>8.076529921863454</v>
+        <v>39.34418390582346</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>98.5181210711</v>
+        <v>795.8472452987694</v>
       </c>
       <c r="C99" t="n">
-        <v>8.820202374383589</v>
+        <v>38.56547041120768</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.5181210711</v>
+        <v>775.3027067895669</v>
       </c>
       <c r="C100" t="n">
-        <v>6.347747504573039</v>
+        <v>38.20900177484782</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>98.5181210711</v>
+        <v>772.4441132513082</v>
       </c>
       <c r="C101" t="n">
-        <v>6.168753225633071</v>
+        <v>36.76791615760555</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>98.5181210711</v>
+        <v>766.7231205266933</v>
       </c>
       <c r="C102" t="n">
-        <v>7.376859070053996</v>
+        <v>37.14089229605815</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>98.5181210711</v>
+        <v>762.7154025328504</v>
       </c>
       <c r="C103" t="n">
-        <v>8.820202374383589</v>
+        <v>36.87318174783434</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>98.5181210711</v>
+        <v>759.8512205962311</v>
       </c>
       <c r="C104" t="n">
-        <v>9.597653617444738</v>
+        <v>38.06850227148766</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>98.5181210711</v>
+        <v>744.3626095498432</v>
       </c>
       <c r="C105" t="n">
-        <v>6.941465316546511</v>
+        <v>35.72299305433773</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.5181210711</v>
+        <v>727.1092826788824</v>
       </c>
       <c r="C106" t="n">
-        <v>8.076529921863454</v>
+        <v>36.7847258254202</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>98.5181210711</v>
+        <v>724.8053462063933</v>
       </c>
       <c r="C107" t="n">
-        <v>7.837820098564671</v>
+        <v>43.01457483887759</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>98.7720618713</v>
+        <v>723.6530691105481</v>
       </c>
       <c r="C108" t="n">
-        <v>5.901228790030942</v>
+        <v>33.86472347563097</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>99.1529543162</v>
+        <v>719.0418999693052</v>
       </c>
       <c r="C109" t="n">
-        <v>11.03398640854428</v>
+        <v>34.31994016560486</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>99.1529543162</v>
+        <v>692.4634763383534</v>
       </c>
       <c r="C110" t="n">
-        <v>6.235745503793659</v>
+        <v>36.66752984977802</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>99.1529543162</v>
+        <v>687.2505080298579</v>
       </c>
       <c r="C111" t="n">
-        <v>8.895666632499188</v>
+        <v>32.06462489708383</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>99.78772505000001</v>
+        <v>678.5528487193736</v>
       </c>
       <c r="C112" t="n">
-        <v>8.467349330547481</v>
+        <v>31.03567839752361</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>99.78772505000001</v>
+        <v>678.5528487193736</v>
       </c>
       <c r="C113" t="n">
-        <v>8.221939693715642</v>
+        <v>43.82041280237536</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.78772505000001</v>
+        <v>676.2314896055766</v>
       </c>
       <c r="C114" t="n">
-        <v>7.294885581421849</v>
+        <v>33.07721366102646</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99.78772505000001</v>
+        <v>669.2623925155031</v>
       </c>
       <c r="C115" t="n">
-        <v>7.294885581421849</v>
+        <v>35.25355610272334</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.78772505000001</v>
+        <v>668.1001434945002</v>
       </c>
       <c r="C116" t="n">
-        <v>6.871799909527572</v>
+        <v>30.46600984933445</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.0416158432</v>
+        <v>664.0306209425323</v>
       </c>
       <c r="C117" t="n">
-        <v>6.145185025335891</v>
+        <v>31.67688443005625</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.16855749</v>
+        <v>658.7945999332563</v>
       </c>
       <c r="C118" t="n">
-        <v>6.048445102749557</v>
+        <v>31.15507344599416</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100.2954966372</v>
+        <v>658.21255720938</v>
       </c>
       <c r="C119" t="n">
-        <v>6.031555659919015</v>
+        <v>29.79379741060836</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>100.4224332849</v>
+        <v>650.6412156530132</v>
       </c>
       <c r="C120" t="n">
-        <v>8.295148632511859</v>
+        <v>32.53306125234167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>100.6762990819</v>
+        <v>649.4756041878783</v>
       </c>
       <c r="C121" t="n">
-        <v>5.998377912362394</v>
+        <v>32.76777280763497</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101.0570790331</v>
+        <v>647.1437487912185</v>
       </c>
       <c r="C122" t="n">
-        <v>6.810119460091505</v>
+        <v>32.13694132328692</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>101.0570790331</v>
+        <v>644.227742868118</v>
       </c>
       <c r="C123" t="n">
-        <v>7.659454501004448</v>
+        <v>35.60252536481596</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>101.0570790331</v>
+        <v>640.7267937362616</v>
       </c>
       <c r="C124" t="n">
-        <v>10.73308338059693</v>
+        <v>31.51044735832204</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101.0570790331</v>
+        <v>630.7971001961388</v>
       </c>
       <c r="C125" t="n">
-        <v>7.659454501004448</v>
+        <v>30.40762664776912</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>101.0570790331</v>
+        <v>630.7971001961388</v>
       </c>
       <c r="C126" t="n">
-        <v>8.867790998155547</v>
+        <v>29.4675000005841</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>101.6916623069</v>
+        <v>622.0228859898658</v>
       </c>
       <c r="C127" t="n">
-        <v>9.726546346517313</v>
+        <v>32.08498965776562</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>101.6916623069</v>
+        <v>619.6810771600292</v>
       </c>
       <c r="C128" t="n">
-        <v>8.690691245258769</v>
+        <v>31.416984187087</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>102.3261831187</v>
+        <v>616.7526192988795</v>
       </c>
       <c r="C129" t="n">
-        <v>6.576635565823057</v>
+        <v>31.90024426380739</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>102.3261831187</v>
+        <v>615.5808635542484</v>
       </c>
       <c r="C130" t="n">
-        <v>32.86586700613857</v>
+        <v>28.50490313722946</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>102.3261831187</v>
+        <v>614.9949058072126</v>
       </c>
       <c r="C131" t="n">
-        <v>8.034858795064411</v>
+        <v>28.93855362339673</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>102.9606414807</v>
+        <v>610.8917095553032</v>
       </c>
       <c r="C132" t="n">
-        <v>7.87517478089097</v>
+        <v>28.23260604168593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>102.9606414807</v>
+        <v>604.4385483433325</v>
       </c>
       <c r="C133" t="n">
-        <v>7.220640400430336</v>
+        <v>30.44428477987469</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>102.9606414807</v>
+        <v>603.2645519490555</v>
       </c>
       <c r="C134" t="n">
-        <v>8.346734529477523</v>
+        <v>27.76363700927277</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>103.5950374053</v>
+        <v>603.2645519490555</v>
       </c>
       <c r="C135" t="n">
-        <v>9.964932441190637</v>
+        <v>38.9079742508402</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>103.5950374053</v>
+        <v>601.5031563788243</v>
       </c>
       <c r="C136" t="n">
-        <v>10.23641778124729</v>
+        <v>28.72007755257994</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>103.5950374053</v>
+        <v>595.040585232496</v>
       </c>
       <c r="C137" t="n">
-        <v>7.502348942559858</v>
+        <v>31.45861356316186</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>103.5950374053</v>
+        <v>592.1009097822191</v>
       </c>
       <c r="C138" t="n">
-        <v>9.964932441190637</v>
+        <v>32.35458710653927</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>103.6584735642</v>
+        <v>589.7482038479898</v>
       </c>
       <c r="C139" t="n">
-        <v>6.503705717227311</v>
+        <v>29.63167732281397</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>103.7219090988</v>
+        <v>588.5715288122192</v>
       </c>
       <c r="C140" t="n">
-        <v>6.126040924714573</v>
+        <v>27.60234869893543</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>104.2293709046</v>
+        <v>583.2738316098752</v>
       </c>
       <c r="C141" t="n">
-        <v>8.020793733156026</v>
+        <v>29.39484606958604</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>104.2293709046</v>
+        <v>583.2738316098752</v>
       </c>
       <c r="C142" t="n">
-        <v>8.254840747895502</v>
+        <v>28.85759541737809</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>104.2293709046</v>
+        <v>582.0959740910027</v>
       </c>
       <c r="C143" t="n">
-        <v>8.020793733156026</v>
+        <v>29.35180881031113</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>104.2293709046</v>
+        <v>579.7396132193344</v>
       </c>
       <c r="C144" t="n">
-        <v>6.785917218449254</v>
+        <v>34.75093837936436</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>104.2293709046</v>
+        <v>577.9717771527033</v>
       </c>
       <c r="C145" t="n">
-        <v>10.31759315132444</v>
+        <v>28.92559996831244</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>104.5465142487</v>
+        <v>573.8449400003426</v>
       </c>
       <c r="C146" t="n">
-        <v>6.375099883072936</v>
+        <v>29.93767293898304</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>104.8636419911</v>
+        <v>573.2551761143719</v>
       </c>
       <c r="C147" t="n">
-        <v>9.855266623278865</v>
+        <v>27.97696643277095</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>104.8636419911</v>
+        <v>570.8955808515315</v>
       </c>
       <c r="C148" t="n">
-        <v>8.328878315249874</v>
+        <v>28.66462414652938</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>104.8636419911</v>
+        <v>569.715459258646</v>
       </c>
       <c r="C149" t="n">
-        <v>6.685669300511066</v>
+        <v>32.16120496590372</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>105.497850677</v>
+        <v>569.1253174391077</v>
       </c>
       <c r="C150" t="n">
-        <v>6.927418353614999</v>
+        <v>30.9106835078652</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>105.497850677</v>
+        <v>567.9448716920884</v>
       </c>
       <c r="C151" t="n">
-        <v>7.718853162366951</v>
+        <v>31.92343220568398</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>106.0685851518</v>
+        <v>563.8116085091876</v>
       </c>
       <c r="C152" t="n">
-        <v>6.676874114054661</v>
+        <v>27.4951075856186</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>106.1319969745</v>
+        <v>563.2209259413983</v>
       </c>
       <c r="C153" t="n">
-        <v>7.181685534895633</v>
+        <v>34.47420677414254</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>106.1319969745</v>
+        <v>558.493515936131</v>
       </c>
       <c r="C154" t="n">
-        <v>8.478022285605588</v>
+        <v>26.11967158430707</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>106.7660808959</v>
+        <v>552.5793740715267</v>
       </c>
       <c r="C155" t="n">
-        <v>9.561034346527647</v>
+        <v>26.82494162602109</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>106.7660808959</v>
+        <v>552.5793740715267</v>
       </c>
       <c r="C156" t="n">
-        <v>8.086820093403631</v>
+        <v>27.57958348904242</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>107.4001024536</v>
+        <v>550.8040729588986</v>
       </c>
       <c r="C157" t="n">
-        <v>9.905497322745251</v>
+        <v>25.54848495422675</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>107.4001024536</v>
+        <v>550.2121972560359</v>
       </c>
       <c r="C158" t="n">
-        <v>9.639701811459425</v>
+        <v>28.95366150961377</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>108.0340616597</v>
+        <v>547.8441508765734</v>
       </c>
       <c r="C159" t="n">
-        <v>8.704418608310762</v>
+        <v>33.4234309302459</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>108.0340616597</v>
+        <v>546.0675450555343</v>
       </c>
       <c r="C160" t="n">
-        <v>13.15049047606864</v>
+        <v>31.98643272784102</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>108.1608460198</v>
+        <v>544.2904494731451</v>
       </c>
       <c r="C161" t="n">
-        <v>6.868037031348207</v>
+        <v>26.87600372580891</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>108.6679585265</v>
+        <v>543.1054468642443</v>
       </c>
       <c r="C162" t="n">
-        <v>7.87254773278445</v>
+        <v>25.23461536039167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>109.3017930663</v>
+        <v>540.7347879484345</v>
       </c>
       <c r="C163" t="n">
-        <v>8.617802116537533</v>
+        <v>29.79463810311927</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>109.6820638784</v>
+        <v>540.1419869741184</v>
       </c>
       <c r="C164" t="n">
-        <v>6.747282348617269</v>
+        <v>27.11639653357645</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>110.4425382131</v>
+        <v>535.9908530950083</v>
       </c>
       <c r="C165" t="n">
-        <v>6.987779773043032</v>
+        <v>36.08641170637725</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>111.2029228463</v>
+        <v>535.3976156968353</v>
       </c>
       <c r="C166" t="n">
-        <v>12.70252234456857</v>
+        <v>30.52078650265071</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>111.2029228463</v>
+        <v>535.3976156968353</v>
       </c>
       <c r="C167" t="n">
-        <v>11.23043055758755</v>
+        <v>26.80396714400479</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>111.2029228463</v>
+        <v>534.8043237033012</v>
       </c>
       <c r="C168" t="n">
-        <v>7.583794945563671</v>
+        <v>26.26304915418456</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>111.2029228463</v>
+        <v>529.4622371520592</v>
       </c>
       <c r="C169" t="n">
-        <v>9.852515254470841</v>
+        <v>30.52021704056887</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>111.2029228463</v>
+        <v>529.4622371520592</v>
       </c>
       <c r="C170" t="n">
-        <v>8.614088398057458</v>
+        <v>25.57996097025136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>111.2029228463</v>
+        <v>528.2745053821844</v>
       </c>
       <c r="C171" t="n">
-        <v>11.51843702557783</v>
+        <v>27.40336509656413</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>111.2029228463</v>
+        <v>524.1157199954445</v>
       </c>
       <c r="C172" t="n">
-        <v>9.088928307219676</v>
+        <v>25.60728825491719</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>111.2029228463</v>
+        <v>522.3325617569961</v>
       </c>
       <c r="C173" t="n">
-        <v>8.614088398057458</v>
+        <v>27.5015916902604</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>112.4700312891</v>
+        <v>517.5750603000794</v>
       </c>
       <c r="C174" t="n">
-        <v>7.919742350117836</v>
+        <v>27.98821686865267</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>113.1034921241</v>
+        <v>517.5750603000794</v>
       </c>
       <c r="C175" t="n">
-        <v>10.36268279845086</v>
+        <v>25.0012793387499</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>113.2301768217</v>
+        <v>516.385136125128</v>
       </c>
       <c r="C176" t="n">
-        <v>7.386116517234622</v>
+        <v>28.46200046555066</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>113.5468776743</v>
+        <v>514.0046286462779</v>
       </c>
       <c r="C177" t="n">
-        <v>7.559315949650013</v>
+        <v>37.62754940649563</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>113.7368907178</v>
+        <v>511.027757579914</v>
       </c>
       <c r="C178" t="n">
-        <v>9.911480801767318</v>
+        <v>31.74971006876865</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>113.7368907178</v>
+        <v>510.4322183685607</v>
       </c>
       <c r="C179" t="n">
-        <v>20.23657092410757</v>
+        <v>28.08871825413786</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>113.7368907178</v>
+        <v>509.8366241333566</v>
       </c>
       <c r="C180" t="n">
-        <v>21.5956964144251</v>
+        <v>26.59033755108408</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>114.3702270824</v>
+        <v>508.0495111968484</v>
       </c>
       <c r="C181" t="n">
-        <v>13.15790378216275</v>
+        <v>24.86545044959399</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>114.6235442068</v>
+        <v>506.2619026849578</v>
       </c>
       <c r="C182" t="n">
-        <v>7.736556747877294</v>
+        <v>26.30905357347905</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>115.0035012302</v>
+        <v>505.665923007033</v>
       </c>
       <c r="C183" t="n">
-        <v>8.039231388141888</v>
+        <v>26.44119625822321</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>115.0035012302</v>
+        <v>502.0888873962834</v>
       </c>
       <c r="C184" t="n">
-        <v>17.44460563188249</v>
+        <v>23.47459050606369</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>116.2698629241</v>
+        <v>498.5098658254029</v>
       </c>
       <c r="C185" t="n">
-        <v>9.476985894524708</v>
+        <v>23.00511017875203</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>116.2698629241</v>
+        <v>497.3164169315212</v>
       </c>
       <c r="C186" t="n">
-        <v>9.976379101407781</v>
+        <v>24.57642775822978</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>116.9029504947</v>
+        <v>495.5258292122172</v>
       </c>
       <c r="C187" t="n">
-        <v>14.79830198617706</v>
+        <v>29.27418268767661</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>116.9029504947</v>
+        <v>495.5258292122172</v>
       </c>
       <c r="C188" t="n">
-        <v>8.272307845799112</v>
+        <v>26.72899268962021</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>117.5359758972</v>
+        <v>495.5258292122172</v>
       </c>
       <c r="C189" t="n">
-        <v>8.350793890924868</v>
+        <v>25.47030038042857</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>117.5359758972</v>
+        <v>491.9431609935365</v>
       </c>
       <c r="C190" t="n">
-        <v>8.737938082606364</v>
+        <v>24.76872529357735</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>118.8018402473</v>
+        <v>485.3697600982421</v>
       </c>
       <c r="C191" t="n">
-        <v>10.04870070755187</v>
+        <v>24.11915797847871</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>120.067456072</v>
+        <v>484.1738758219356</v>
       </c>
       <c r="C192" t="n">
-        <v>10.73515956436469</v>
+        <v>26.33874656253391</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>120.067456072</v>
+        <v>4415.744470140885</v>
       </c>
       <c r="C193" t="n">
-        <v>9.269589682734482</v>
+        <v>91.46408612354389</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>121.9654140371</v>
+        <v>483.575850477132</v>
       </c>
       <c r="C194" t="n">
-        <v>9.30190901907843</v>
+        <v>23.92181562514463</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>121.9654140371</v>
+        <v>480.5848913098833</v>
       </c>
       <c r="C195" t="n">
-        <v>9.737825738208764</v>
+        <v>26.21593291835688</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>122.5979425351</v>
+        <v>479.3881189722518</v>
       </c>
       <c r="C196" t="n">
-        <v>9.597012485312105</v>
+        <v>25.83695891152348</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>122.9774298452</v>
+        <v>478.7896494732834</v>
       </c>
       <c r="C197" t="n">
-        <v>8.766071364202196</v>
+        <v>22.52258155441342</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>123.2304089749</v>
+        <v>478.7896494732834</v>
       </c>
       <c r="C198" t="n">
-        <v>9.264701690381616</v>
+        <v>24.70995489441862</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>123.2304089749</v>
+        <v>474.5988065793717</v>
       </c>
       <c r="C199" t="n">
-        <v>9.679835080599032</v>
+        <v>22.17406819341909</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>123.8628133686</v>
+        <v>472.202815405761</v>
       </c>
       <c r="C200" t="n">
-        <v>9.549467784637752</v>
+        <v>22.99043140812898</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>124.3054595333</v>
+        <v>469.2065735732882</v>
       </c>
       <c r="C201" t="n">
-        <v>8.955096484951904</v>
+        <v>27.48476817698696</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>124.4951557284</v>
+        <v>466.8085770122576</v>
       </c>
       <c r="C202" t="n">
-        <v>10.30603562726961</v>
+        <v>26.46479347016577</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>125.1274360665</v>
+        <v>466.2089384676913</v>
       </c>
       <c r="C203" t="n">
-        <v>9.323584745562727</v>
+        <v>27.7827846196837</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>126.3918107263</v>
+        <v>465.6092441365493</v>
       </c>
       <c r="C204" t="n">
-        <v>10.56133008572113</v>
+        <v>21.56093585480937</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>128.9198163203</v>
+        <v>465.0094940164337</v>
       </c>
       <c r="C205" t="n">
-        <v>10.44266352546477</v>
+        <v>23.76233701163716</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>129.6148440935</v>
+        <v>465.0094940164337</v>
       </c>
       <c r="C206" t="n">
-        <v>9.663936826834229</v>
+        <v>23.61976929219986</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>129.6780247209</v>
+        <v>465.0094940164337</v>
       </c>
       <c r="C207" t="n">
-        <v>9.739362665113186</v>
+        <v>22.056359190595</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>129.804384118</v>
+        <v>459.609230503469</v>
       </c>
       <c r="C208" t="n">
-        <v>9.756600384694565</v>
+        <v>25.6820422098973</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>131.4468309282</v>
+        <v>457.2076605095987</v>
       </c>
       <c r="C209" t="n">
-        <v>10.17787845040244</v>
+        <v>22.16744427928421</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>132.709966855</v>
+        <v>454.8051954928139</v>
       </c>
       <c r="C210" t="n">
-        <v>12.77338273778401</v>
+        <v>28.25259604316579</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>133.278297284</v>
+        <v>454.2044393134136</v>
       </c>
       <c r="C211" t="n">
-        <v>9.560574261827183</v>
+        <v>23.07362563888802</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>133.6571564023</v>
+        <v>454.2044393134136</v>
       </c>
       <c r="C212" t="n">
-        <v>10.22291667592474</v>
+        <v>21.93549180377971</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>133.9728553265</v>
+        <v>451.8008545796359</v>
       </c>
       <c r="C213" t="n">
-        <v>11.14709493790975</v>
+        <v>22.7063591479465</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>134.6042067968</v>
+        <v>450.5987260585103</v>
       </c>
       <c r="C214" t="n">
-        <v>10.81284464881202</v>
+        <v>23.08182984988832</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>135.866724267</v>
+        <v>447.5924236297227</v>
       </c>
       <c r="C215" t="n">
-        <v>11.88909833817828</v>
+        <v>25.28239692335808</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>135.866724267</v>
+        <v>446.9909948652694</v>
       </c>
       <c r="C216" t="n">
-        <v>10.99273626166532</v>
+        <v>22.00291993454692</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>135.9298436503</v>
+        <v>445.7879689827408</v>
       </c>
       <c r="C217" t="n">
-        <v>10.5445186520212</v>
+        <v>26.75747671221814</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>135.9929624157</v>
+        <v>437.9628235809265</v>
       </c>
       <c r="C218" t="n">
-        <v>10.42620259440448</v>
+        <v>20.40774536372174</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>136.4978902911</v>
+        <v>435.5531742946508</v>
       </c>
       <c r="C219" t="n">
-        <v>10.88983823705455</v>
+        <v>21.68523490342579</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>136.4978902911</v>
+        <v>435.5531742946508</v>
       </c>
       <c r="C220" t="n">
-        <v>11.08327237658902</v>
+        <v>20.22884663278592</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>136.4978902911</v>
+        <v>429.5251074793575</v>
       </c>
       <c r="C221" t="n">
-        <v>10.88983823705455</v>
+        <v>21.32271346457253</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>136.876560245</v>
+        <v>428.3188173974297</v>
       </c>
       <c r="C222" t="n">
-        <v>10.64728573912521</v>
+        <v>20.08964952176103</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>136.9396697415</v>
+        <v>427.1123015439229</v>
       </c>
       <c r="C223" t="n">
-        <v>10.41630531881861</v>
+        <v>21.35949281883688</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>137.128994524</v>
+        <v>423.4913985206736</v>
       </c>
       <c r="C224" t="n">
-        <v>11.38088934513284</v>
+        <v>20.37616756313531</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>137.7600369779</v>
+        <v>422.8877168981998</v>
       </c>
       <c r="C225" t="n">
-        <v>10.8918834753191</v>
+        <v>21.61227145218675</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>137.7600369779</v>
+        <v>418.0562276856452</v>
       </c>
       <c r="C226" t="n">
-        <v>10.8918834753191</v>
+        <v>43.60627184643516</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>137.7600369779</v>
+        <v>413.8257021247857</v>
       </c>
       <c r="C227" t="n">
-        <v>12.1649369621552</v>
+        <v>23.61202827747894</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>138.2017299435</v>
+        <v>412.0117695001754</v>
       </c>
       <c r="C228" t="n">
-        <v>10.74374010113219</v>
+        <v>23.00342582079298</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>139.0219365967</v>
+        <v>410.1973263162085</v>
       </c>
       <c r="C229" t="n">
-        <v>12.60403581473283</v>
+        <v>19.62724641183536</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>139.6527937858</v>
+        <v>408.3823722847039</v>
       </c>
       <c r="C230" t="n">
-        <v>11.74928251572307</v>
+        <v>19.99790780518293</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>139.6527937858</v>
+        <v>407.1721189851665</v>
       </c>
       <c r="C231" t="n">
-        <v>11.34767142399554</v>
+        <v>24.16396025533277</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>139.6527937858</v>
+        <v>407.1721189851665</v>
       </c>
       <c r="C232" t="n">
-        <v>12.44421071609422</v>
+        <v>19.71893268857315</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>139.6527937858</v>
+        <v>401.7231656084147</v>
       </c>
       <c r="C233" t="n">
-        <v>13.8061445037647</v>
+        <v>21.126600367506</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>139.6527937858</v>
+        <v>399.2999293477546</v>
       </c>
       <c r="C234" t="n">
-        <v>10.53667804883731</v>
+        <v>23.13486754652342</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>140.2835892442</v>
+        <v>398.6939779285507</v>
       </c>
       <c r="C235" t="n">
-        <v>12.06256209330859</v>
+        <v>20.13166365921609</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>140.914322984</v>
+        <v>388.3840795837623</v>
       </c>
       <c r="C236" t="n">
-        <v>15.23647153237442</v>
+        <v>24.196275987619</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>141.5449950172</v>
+        <v>387.7771011740116</v>
       </c>
       <c r="C237" t="n">
-        <v>12.72692182039234</v>
+        <v>22.00296729983381</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>141.5449950172</v>
+        <v>376.8417055370997</v>
       </c>
       <c r="C238" t="n">
-        <v>14.70167749933542</v>
+        <v>19.90056615272931</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>142.1756053559</v>
+        <v>376.2336393022089</v>
       </c>
       <c r="C239" t="n">
-        <v>14.49252475664523</v>
+        <v>18.99311003475049</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>142.1756053559</v>
+        <v>375.6255157058017</v>
       </c>
       <c r="C240" t="n">
-        <v>14.49252475664523</v>
+        <v>17.908753036056</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>142.8061540121</v>
+        <v>374.4090963827607</v>
       </c>
       <c r="C241" t="n">
-        <v>13.4381737755911</v>
+        <v>18.92261996308054</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>142.8061540121</v>
+        <v>370.7584606000308</v>
       </c>
       <c r="C242" t="n">
-        <v>12.43961920542678</v>
+        <v>18.38548123445327</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>143.436640998</v>
+        <v>369.5411224443528</v>
       </c>
       <c r="C243" t="n">
-        <v>13.81016458771433</v>
+        <v>19.96115336986884</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>144.2561819023</v>
+        <v>357.3550806650809</v>
       </c>
       <c r="C244" t="n">
-        <v>11.65522026372269</v>
+        <v>17.98962021364372</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>144.697430007</v>
+        <v>356.7451734608227</v>
       </c>
       <c r="C245" t="n">
-        <v>11.91965436455073</v>
+        <v>25.08703868384197</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>145.3277320541</v>
+        <v>354.9151055470228</v>
       </c>
       <c r="C246" t="n">
-        <v>13.05698067977499</v>
+        <v>20.34161433742412</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>146.2730695871</v>
+        <v>351.2534103735503</v>
       </c>
       <c r="C247" t="n">
-        <v>11.82838887455441</v>
+        <v>17.12437155431815</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>147.1552595608</v>
+        <v>349.4217825197248</v>
       </c>
       <c r="C248" t="n">
-        <v>12.1132199106516</v>
+        <v>19.4225934094427</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>147.2182685109</v>
+        <v>343.31259500671</v>
       </c>
       <c r="C249" t="n">
-        <v>13.11441471300538</v>
+        <v>20.94870890074412</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>147.8483241418</v>
+        <v>341.4787092089579</v>
       </c>
       <c r="C250" t="n">
-        <v>19.54411029511774</v>
+        <v>17.66126372258844</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>149.7381216387</v>
+        <v>337.197612399322</v>
       </c>
       <c r="C251" t="n">
-        <v>34.54742430402244</v>
+        <v>19.948597853102</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>150.3679310459</v>
+        <v>331.6891641508437</v>
       </c>
       <c r="C252" t="n">
-        <v>15.48829917479811</v>
+        <v>16.99556902644559</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>150.3679310459</v>
+        <v>326.1760049197123</v>
       </c>
       <c r="C253" t="n">
-        <v>13.17450514239385</v>
+        <v>18.80999328997149</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>150.9976789272</v>
+        <v>324.9502178489905</v>
       </c>
       <c r="C254" t="n">
-        <v>13.48440890178587</v>
+        <v>15.71837676141763</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>152.2569901604</v>
+        <v>324.3372368972838</v>
       </c>
       <c r="C255" t="n">
-        <v>19.56815766378586</v>
+        <v>15.48838158020015</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>158.5498588582</v>
+        <v>321.2714575154714</v>
       </c>
       <c r="C256" t="n">
-        <v>17.48061277951365</v>
+        <v>17.05707121968533</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>161.0652873096</v>
+        <v>319.4312897933635</v>
       </c>
       <c r="C257" t="n">
-        <v>17.27593256858789</v>
+        <v>16.98893185978335</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>169.2336576572</v>
+        <v>318.8177838041699</v>
       </c>
       <c r="C258" t="n">
-        <v>27.76012458546947</v>
+        <v>17.12907533671876</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>172.3725846229</v>
+        <v>318.8177838041699</v>
       </c>
       <c r="C259" t="n">
-        <v>23.27664577953071</v>
+        <v>16.35630970479821</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>176.764516203</v>
+        <v>318.2042194213041</v>
       </c>
       <c r="C260" t="n">
-        <v>22.18271669617764</v>
+        <v>16.78449433285198</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>177.391690809</v>
+        <v>317.590596634754</v>
       </c>
       <c r="C261" t="n">
-        <v>20.87559777563771</v>
+        <v>15.89696527335428</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>179.8997792297</v>
+        <v>314.5216062493604</v>
       </c>
       <c r="C262" t="n">
-        <v>21.3529250687244</v>
+        <v>19.42941794330955</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>183.6600831563</v>
+        <v>310.2225636215689</v>
       </c>
       <c r="C263" t="n">
-        <v>20.20868369728065</v>
+        <v>17.16015218637574</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>184.9130305232</v>
+        <v>308.9937389544705</v>
       </c>
       <c r="C264" t="n">
-        <v>26.18198286746038</v>
+        <v>18.23806448904276</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>188.6704121229</v>
+        <v>307.1500626419142</v>
       </c>
       <c r="C265" t="n">
-        <v>19.76013696900869</v>
+        <v>18.99083903679161</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>193.6768499492</v>
+        <v>305.3058588873943</v>
       </c>
       <c r="C266" t="n">
-        <v>27.58425038053826</v>
+        <v>15.1517750458159</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>194.3023813827</v>
+        <v>304.691007040125</v>
       </c>
       <c r="C267" t="n">
-        <v>27.71679007549655</v>
+        <v>15.25458166026817</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>204.9271393354</v>
+        <v>302.846099558681</v>
       </c>
       <c r="C268" t="n">
-        <v>27.1771192276856</v>
+        <v>14.93010122577971</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>207.4245395341</v>
+        <v>302.2310130470509</v>
       </c>
       <c r="C269" t="n">
-        <v>28.89356958947842</v>
+        <v>16.19141658293802</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>207.7990661296</v>
+        <v>301.6158678410486</v>
       </c>
       <c r="C270" t="n">
-        <v>23.36428936833379</v>
+        <v>14.34651701427549</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>209.2969549557</v>
+        <v>300.3854013008006</v>
       </c>
       <c r="C271" t="n">
-        <v>26.37971611279185</v>
+        <v>16.63469378188722</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>212.4164392566</v>
+        <v>299.154699850171</v>
       </c>
       <c r="C272" t="n">
-        <v>28.45263003840578</v>
+        <v>15.30914959103069</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>214.2874055104</v>
+        <v>299.154699850171</v>
       </c>
       <c r="C273" t="n">
-        <v>27.16648292249359</v>
+        <v>16.76976249698032</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>216.1578289044</v>
+        <v>296.6925918536406</v>
       </c>
       <c r="C274" t="n">
-        <v>28.23408601423265</v>
+        <v>15.35912751700977</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>221.7658450755</v>
+        <v>296.6925918536406</v>
       </c>
       <c r="C275" t="n">
-        <v>34.79748060384302</v>
+        <v>14.56149768516275</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>223.011408635</v>
+        <v>296.0769178943396</v>
       </c>
       <c r="C276" t="n">
-        <v>32.04125400566313</v>
+        <v>15.80101166222738</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>227.9912576135</v>
+        <v>295.4611851288138</v>
       </c>
       <c r="C277" t="n">
-        <v>32.42970425031444</v>
+        <v>14.88834500982517</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>229.2356190076</v>
+        <v>295.4611851288138</v>
       </c>
       <c r="C278" t="n">
-        <v>29.22063093761794</v>
+        <v>20.41722090947155</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>229.2356190076</v>
+        <v>294.2295431337623</v>
       </c>
       <c r="C279" t="n">
-        <v>31.61796493939262</v>
+        <v>17.96130894525578</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>229.8577096408</v>
+        <v>291.7655529729171</v>
       </c>
       <c r="C280" t="n">
-        <v>28.91443715523585</v>
+        <v>17.47504652227974</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>230.479740247</v>
+        <v>291.7655529729171</v>
       </c>
       <c r="C281" t="n">
-        <v>36.44499922648052</v>
+        <v>15.02262347334192</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>230.479740247</v>
+        <v>289.3006206487743</v>
       </c>
       <c r="C282" t="n">
-        <v>30.9142551234447</v>
+        <v>18.22686619498381</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>231.7236214245</v>
+        <v>289.3006206487743</v>
       </c>
       <c r="C283" t="n">
-        <v>30.06531454378164</v>
+        <v>14.14379184473694</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>232.3454720189</v>
+        <v>288.0678009502174</v>
       </c>
       <c r="C284" t="n">
-        <v>35.11564323074187</v>
+        <v>15.50484364549266</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>232.9672626325</v>
+        <v>287.4513026777245</v>
       </c>
       <c r="C285" t="n">
-        <v>33.24751070926782</v>
+        <v>15.48213621499025</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>234.2106639638</v>
+        <v>286.8347454413835</v>
       </c>
       <c r="C286" t="n">
-        <v>34.73346549397198</v>
+        <v>15.45943982556327</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>234.2106639638</v>
+        <v>286.2181292287439</v>
       </c>
       <c r="C287" t="n">
-        <v>32.13654330321047</v>
+        <v>16.13507443012202</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>234.2106639638</v>
+        <v>284.3679266292</v>
       </c>
       <c r="C288" t="n">
-        <v>29.96052317223322</v>
+        <v>14.88801810766728</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>234.8322747046</v>
+        <v>284.3679266292</v>
       </c>
       <c r="C289" t="n">
-        <v>30.33089750643871</v>
+        <v>18.95972978658443</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>234.8322747046</v>
+        <v>283.1341631459961</v>
       </c>
       <c r="C290" t="n">
-        <v>31.96600859183791</v>
+        <v>15.15812473712214</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>243.5285372057</v>
+        <v>282.5171928450239</v>
       </c>
       <c r="C291" t="n">
-        <v>36.25803382864735</v>
+        <v>15.64518735806791</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>247.872273162</v>
+        <v>282.5171928450239</v>
       </c>
       <c r="C292" t="n">
-        <v>40.39093126834596</v>
+        <v>15.82356150532911</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>249.7329786684</v>
+        <v>282.5171928450239</v>
       </c>
       <c r="C293" t="n">
-        <v>38.25249850979394</v>
+        <v>16.19206930130719</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>257.7898353983</v>
+        <v>282.5171928450239</v>
       </c>
       <c r="C294" t="n">
-        <v>37.21531766538475</v>
+        <v>16.77228118885938</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>258.4091767238</v>
+        <v>281.9001634901476</v>
       </c>
       <c r="C295" t="n">
-        <v>38.65532984775312</v>
+        <v>14.35361253418472</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>258.4091767238</v>
+        <v>281.2830750686072</v>
       </c>
       <c r="C296" t="n">
-        <v>47.25848810437599</v>
+        <v>14.61862586566104</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>259.6476808933</v>
+        <v>279.4314552991086</v>
       </c>
       <c r="C297" t="n">
-        <v>40.08617682597087</v>
+        <v>13.86062736777677</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>263.9805726282</v>
+        <v>279.4314552991086</v>
       </c>
       <c r="C298" t="n">
-        <v>40.88227023757184</v>
+        <v>13.98710220624901</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>264.5993194907</v>
+        <v>278.8141305037243</v>
       </c>
       <c r="C299" t="n">
-        <v>37.79282068301401</v>
+        <v>19.03008182238472</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>265.2180069697</v>
+        <v>277.5793035319671</v>
       </c>
       <c r="C300" t="n">
-        <v>42.81665630169239</v>
+        <v>14.95246894276761</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>265.2180069697</v>
+        <v>276.3442399819178</v>
       </c>
       <c r="C301" t="n">
-        <v>39.22125167077908</v>
+        <v>14.2800056861322</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>267.692163278</v>
+        <v>276.3442399819178</v>
       </c>
       <c r="C302" t="n">
-        <v>51.54305425624018</v>
+        <v>16.97871711310285</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>269.5471575401</v>
+        <v>276.3442399819178</v>
       </c>
       <c r="C303" t="n">
-        <v>43.60080111422064</v>
+        <v>13.86356891833492</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>270.1653703607</v>
+        <v>275.7266194609749</v>
       </c>
       <c r="C304" t="n">
-        <v>45.06378623485134</v>
+        <v>14.88412223643564</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>270.7835239003</v>
+        <v>275.108939761233</v>
       </c>
       <c r="C305" t="n">
-        <v>41.6991468772632</v>
+        <v>15.20385210841454</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>270.7835239003</v>
+        <v>275.108939761233</v>
       </c>
       <c r="C306" t="n">
-        <v>39.95636626928646</v>
+        <v>15.38154646960152</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>271.4016181701</v>
+        <v>275.108939761233</v>
       </c>
       <c r="C307" t="n">
-        <v>43.71405481565305</v>
+        <v>15.74911091187107</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>271.4016181701</v>
+        <v>273.2555454749583</v>
       </c>
       <c r="C308" t="n">
-        <v>42.93782773753316</v>
+        <v>16.67314645264474</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>272.0196531816</v>
+        <v>273.2555454749583</v>
       </c>
       <c r="C309" t="n">
-        <v>40.30217458108891</v>
+        <v>13.37084169680929</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>272.0196531816</v>
+        <v>272.6376289465757</v>
       </c>
       <c r="C310" t="n">
-        <v>41.10607468757522</v>
+        <v>14.6048051023335</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>275.1089397611</v>
+        <v>269.5471575398061</v>
       </c>
       <c r="C311" t="n">
-        <v>41.42552448128259</v>
+        <v>13.5923333856496</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>275.7266194609</v>
+        <v>268.3105540101832</v>
       </c>
       <c r="C312" t="n">
-        <v>50.04080472629801</v>
+        <v>14.61182002778605</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>276.3442399818</v>
+        <v>266.4552038220809</v>
       </c>
       <c r="C313" t="n">
-        <v>41.77644823332908</v>
+        <v>14.89471876819249</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>277.5793035323</v>
+        <v>265.836635076957</v>
       </c>
       <c r="C314" t="n">
-        <v>44.69018402587167</v>
+        <v>14.87274420830619</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>278.1967465845</v>
+        <v>265.836635076957</v>
       </c>
       <c r="C315" t="n">
-        <v>42.57384917176233</v>
+        <v>13.58264741063849</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>279.4314552997</v>
+        <v>263.9805726279757</v>
       </c>
       <c r="C316" t="n">
-        <v>45.60622145766546</v>
+        <v>15.36810874754974</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>280.0487209852</v>
+        <v>263.3617663710077</v>
       </c>
       <c r="C317" t="n">
-        <v>42.83790960705252</v>
+        <v>13.21320456892411</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>280.0487209852</v>
+        <v>263.3617663710077</v>
       </c>
       <c r="C318" t="n">
-        <v>43.68915692959289</v>
+        <v>15.15572469404879</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>282.5171928447</v>
+        <v>261.5049911144545</v>
       </c>
       <c r="C319" t="n">
-        <v>53.0955144348443</v>
+        <v>12.66402887934305</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>282.5171928447</v>
+        <v>260.8859471636864</v>
       </c>
       <c r="C320" t="n">
-        <v>43.82121714805479</v>
+        <v>12.98559604078085</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>283.1341631454</v>
+        <v>258.4091767239563</v>
       </c>
       <c r="C321" t="n">
-        <v>47.48866249725873</v>
+        <v>16.41737367252841</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>283.1341631454</v>
+        <v>256.5509742085386</v>
       </c>
       <c r="C322" t="n">
-        <v>43.47976451516068</v>
+        <v>21.95012190437359</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>284.367926629</v>
+        <v>245.3904967377264</v>
       </c>
       <c r="C323" t="n">
-        <v>44.3612129951961</v>
+        <v>12.3608758983209</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>286.8347454411</v>
+        <v>242.9077644972843</v>
       </c>
       <c r="C324" t="n">
-        <v>45.98422631721995</v>
+        <v>13.69636671156084</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>287.4513026777</v>
+        <v>241.6660397163409</v>
       </c>
       <c r="C325" t="n">
-        <v>50.52594931011783</v>
+        <v>12.34879622606928</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>288.0678009502</v>
+        <v>241.0450876201097</v>
       </c>
       <c r="C326" t="n">
-        <v>53.68854363273891</v>
+        <v>12.18674633623306</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>288.0678009502</v>
+        <v>166.0932015215701</v>
       </c>
       <c r="C327" t="n">
-        <v>46.34909601711423</v>
+        <v>13.62469514759326</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>288.0678009502</v>
+        <v>162.322633555548</v>
       </c>
       <c r="C328" t="n">
-        <v>44.69304689544723</v>
+        <v>9.157577844817212</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>288.6842402701</v>
+        <v>159.1788079959478</v>
       </c>
       <c r="C329" t="n">
-        <v>47.93430138203139</v>
+        <v>10.05171478005636</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>288.6842402701</v>
+        <v>157.2917764611995</v>
       </c>
       <c r="C330" t="n">
-        <v>48.31930901226327</v>
+        <v>9.166264043356108</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>288.6842402701</v>
+        <v>156.6626431777226</v>
       </c>
       <c r="C331" t="n">
-        <v>54.94682690641024</v>
+        <v>8.953143476788796</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>289.3006206484</v>
+        <v>156.0334484887962</v>
       </c>
       <c r="C332" t="n">
-        <v>48.11790792057752</v>
+        <v>8.240220750882969</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>292.9976657787</v>
+        <v>156.0334484887962</v>
       </c>
       <c r="C333" t="n">
-        <v>53.64260545096675</v>
+        <v>16.70376751292784</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>293.6136338822</v>
+        <v>154.1454958665933</v>
       </c>
       <c r="C334" t="n">
-        <v>50.60995414353419</v>
+        <v>8.677075797577373</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>296.6925918535</v>
+        <v>154.1454958665933</v>
       </c>
       <c r="C335" t="n">
-        <v>48.94319376918046</v>
+        <v>12.04177125752625</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>300.3854013008</v>
+        <v>153.516055434395</v>
       </c>
       <c r="C336" t="n">
-        <v>50.75121522734755</v>
+        <v>8.304346049056875</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>302.8460995584</v>
+        <v>152.8865535361624</v>
       </c>
       <c r="C337" t="n">
-        <v>67.22943108569949</v>
+        <v>7.9638804028246</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>304.076096544</v>
+        <v>152.3829077543502</v>
       </c>
       <c r="C338" t="n">
-        <v>65.05877340547777</v>
+        <v>7.529909100572524</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>306.5353866767</v>
+        <v>151.5643994256818</v>
       </c>
       <c r="C339" t="n">
-        <v>51.67772765024004</v>
+        <v>7.352718456244929</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>309.6081805678</v>
+        <v>149.7381216385909</v>
       </c>
       <c r="C340" t="n">
-        <v>59.86482906915534</v>
+        <v>8.160867633540249</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>312.0653615322</v>
+        <v>149.1082506938098</v>
       </c>
       <c r="C341" t="n">
-        <v>56.79384269962643</v>
+        <v>8.311563616860155</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>314.5216062494</v>
+        <v>149.1082506938098</v>
       </c>
       <c r="C342" t="n">
-        <v>93.43928983397601</v>
+        <v>8.311563616860155</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>324.3372368966</v>
+        <v>148.4783181987719</v>
       </c>
       <c r="C343" t="n">
-        <v>59.16620807601726</v>
+        <v>7.94680591711176</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>336.5857949843</v>
+        <v>148.4783181987719</v>
       </c>
       <c r="C344" t="n">
-        <v>62.93532530614576</v>
+        <v>7.641983865226734</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>346.9788022234</v>
+        <v>148.4783181987719</v>
       </c>
       <c r="C345" t="n">
-        <v>67.74136753023775</v>
+        <v>11.89948548959589</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>356.7451734612</v>
+        <v>147.2182685110697</v>
       </c>
       <c r="C346" t="n">
-        <v>70.45315916450589</v>
+        <v>8.065730569544485</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>356.7451734612</v>
+        <v>146.3991041179097</v>
       </c>
       <c r="C347" t="n">
-        <v>67.86200532099053</v>
+        <v>7.328840416242514</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>359.1844561247</v>
+        <v>146.2730695869488</v>
       </c>
       <c r="C348" t="n">
-        <v>70.96647205060079</v>
+        <v>7.055799719065163</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>361.0133125885</v>
+        <v>145.9579724792669</v>
       </c>
       <c r="C349" t="n">
-        <v>72.01586411236863</v>
+        <v>9.411259001595766</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>361.6228161281</v>
+        <v>145.9579724792669</v>
       </c>
       <c r="C350" t="n">
-        <v>86.50428089841594</v>
+        <v>7.540757815562955</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>367.7146840754</v>
+        <v>145.3277320541378</v>
       </c>
       <c r="C351" t="n">
-        <v>74.89785610579312</v>
+        <v>7.515498392631571</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>367.7146840754</v>
+        <v>144.0670663256828</v>
       </c>
       <c r="C352" t="n">
-        <v>71.91340000414534</v>
+        <v>8.313234336569764</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>367.7146840754</v>
+        <v>143.4366409981749</v>
       </c>
       <c r="C353" t="n">
-        <v>76.61158231701522</v>
+        <v>8.687931412168268</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>369.5411224449</v>
+        <v>142.1756053557399</v>
       </c>
       <c r="C354" t="n">
-        <v>76.4129185307598</v>
+        <v>7.876776890400293</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>371.9755689173</v>
+        <v>142.1756053557399</v>
       </c>
       <c r="C355" t="n">
-        <v>77.76864124466522</v>
+        <v>10.47237554892416</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>371.9755689173</v>
+        <v>141.9864287315827</v>
       </c>
       <c r="C356" t="n">
-        <v>103.3197638841918</v>
+        <v>6.778272049957678</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>374.4090963837</v>
+        <v>141.5449950173335</v>
       </c>
       <c r="C357" t="n">
-        <v>84.94467354064957</v>
+        <v>7.853287458643962</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>376.8417055379</v>
+        <v>141.5449950173335</v>
       </c>
       <c r="C358" t="n">
-        <v>80.07496556249936</v>
+        <v>7.680852441993494</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>377.4497144214</v>
+        <v>138.8957577501597</v>
       </c>
       <c r="C359" t="n">
-        <v>82.76115104696964</v>
+        <v>6.562384538578897</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>378.0576659644</v>
+        <v>137.7600369778617</v>
       </c>
       <c r="C360" t="n">
-        <v>79.2335452778959</v>
+        <v>8.710946725909906</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>379.8811766594</v>
+        <v>137.1289945239588</v>
       </c>
       <c r="C361" t="n">
-        <v>80.35915791803815</v>
+        <v>12.16118538951287</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>382.3117221428</v>
+        <v>136.4978902911456</v>
       </c>
       <c r="C362" t="n">
-        <v>85.17480392383135</v>
+        <v>8.890871540693084</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>389.5978649723</v>
+        <v>135.8667242670203</v>
       </c>
       <c r="C363" t="n">
-        <v>85.51501520814851</v>
+        <v>7.829537102404259</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>393.8443149706</v>
+        <v>135.8667242670203</v>
       </c>
       <c r="C364" t="n">
-        <v>120.0016308208266</v>
+        <v>7.139078515856966</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>395.0570727923</v>
+        <v>135.2354964394637</v>
       </c>
       <c r="C365" t="n">
-        <v>84.02326452122594</v>
+        <v>8.851344237170821</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>395.6633661557</v>
+        <v>130.8151701386203</v>
       </c>
       <c r="C366" t="n">
-        <v>84.9777987110958</v>
+        <v>8.714449545735846</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>402.934442233</v>
+        <v>130.8151701386203</v>
       </c>
       <c r="C367" t="n">
-        <v>93.41854961897977</v>
+        <v>7.276449260940112</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>410.8021974572</v>
+        <v>130.1834474490539</v>
       </c>
       <c r="C368" t="n">
-        <v>102.6850979939362</v>
+        <v>8.468820750775308</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>412.0117694998</v>
+        <v>129.5516628469917</v>
       </c>
       <c r="C369" t="n">
-        <v>92.05351276693875</v>
+        <v>7.805637959244422</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>414.4302329242</v>
+        <v>128.9198163204443</v>
       </c>
       <c r="C370" t="n">
-        <v>107.6423870247553</v>
+        <v>9.369457708018302</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>417.4520368431</v>
+        <v>127.9087330445686</v>
       </c>
       <c r="C371" t="n">
-        <v>97.40444796346497</v>
+        <v>6.290982774693248</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>419.2644395115</v>
+        <v>127.0239050722839</v>
       </c>
       <c r="C372" t="n">
-        <v>101.3425370010189</v>
+        <v>6.959177328817887</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>424.6985921903</v>
+        <v>125.1274360664646</v>
       </c>
       <c r="C373" t="n">
-        <v>104.8291801330541</v>
+        <v>7.655341507730341</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>436.1556710641</v>
+        <v>124.4951557283132</v>
       </c>
       <c r="C374" t="n">
-        <v>111.6663858856751</v>
+        <v>8.759650967177407</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>436.1556710641</v>
+        <v>124.4951557283132</v>
       </c>
       <c r="C375" t="n">
-        <v>111.0410539245153</v>
+        <v>8.291640297062969</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>436.7581115282</v>
+        <v>124.305459533365</v>
       </c>
       <c r="C376" t="n">
-        <v>105.7483605051927</v>
+        <v>5.991084589869359</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>437.3604956975</v>
+        <v>121.3328234686643</v>
       </c>
       <c r="C377" t="n">
-        <v>108.631127839237</v>
+        <v>7.119367306874054</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>437.9628235822</v>
+        <v>119.4346792191827</v>
       </c>
       <c r="C378" t="n">
-        <v>103.6061562736078</v>
+        <v>9.110730380956113</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>438.5650951931</v>
+        <v>117.5359758971493</v>
       </c>
       <c r="C379" t="n">
-        <v>105.5976808669603</v>
+        <v>6.790328021967497</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>439.1673105405</v>
+        <v>117.5359758971493</v>
       </c>
       <c r="C380" t="n">
-        <v>109.9954089861531</v>
+        <v>8.31841669135774</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>441.5756095065</v>
+        <v>116.9029504945859</v>
       </c>
       <c r="C381" t="n">
-        <v>106.4823936690232</v>
+        <v>8.791556172492903</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>442.7794216822</v>
+        <v>115.6367131733944</v>
       </c>
       <c r="C382" t="n">
-        <v>106.1571802193913</v>
+        <v>7.12662214815019</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>445.1863718388</v>
+        <v>115.0035012300844</v>
       </c>
       <c r="C383" t="n">
-        <v>109.0200825806412</v>
+        <v>7.105393993680337</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>449.997577721</v>
+        <v>114.3702270824186</v>
       </c>
       <c r="C384" t="n">
-        <v>106.8726679843437</v>
+        <v>8.22764857557506</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>449.997577721</v>
+        <v>114.3702270824186</v>
       </c>
       <c r="C385" t="n">
-        <v>117.8757756668323</v>
+        <v>7.522534774663683</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>451.8008545798</v>
+        <v>113.736890717775</v>
       </c>
       <c r="C386" t="n">
-        <v>114.0276543257096</v>
+        <v>9.748097083908917</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>454.8051954936</v>
+        <v>113.736890717775</v>
       </c>
       <c r="C387" t="n">
-        <v>109.3816390995474</v>
+        <v>7.063088526600893</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>457.2076605105</v>
+        <v>111.8365082004847</v>
       </c>
       <c r="C388" t="n">
-        <v>119.9356382853331</v>
+        <v>6.789485681214757</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>464.4096880901</v>
+        <v>111.3930049911415</v>
       </c>
       <c r="C389" t="n">
-        <v>118.8142547880259</v>
+        <v>5.730535137575515</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>468.607158056</v>
+        <v>110.5692752139452</v>
       </c>
       <c r="C390" t="n">
-        <v>125.2577125765488</v>
+        <v>6.542855198559948</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>471.0044857825</v>
+        <v>110.2524280396373</v>
       </c>
       <c r="C391" t="n">
-        <v>122.9560111094235</v>
+        <v>5.642051566768075</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>478.7896494736</v>
+        <v>108.667958526432</v>
       </c>
       <c r="C392" t="n">
-        <v>164.029968857259</v>
+        <v>7.821996101935028</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>478.7896494736</v>
+        <v>108.0340616597253</v>
       </c>
       <c r="C393" t="n">
-        <v>120.9865151408961</v>
+        <v>6.454266607326886</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>482.3796333321</v>
+        <v>108.0340616597253</v>
       </c>
       <c r="C394" t="n">
-        <v>130.0692053257722</v>
+        <v>6.660587056496411</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>483.5758504783</v>
+        <v>107.4001024535683</v>
       </c>
       <c r="C395" t="n">
-        <v>145.3851436133486</v>
+        <v>7.786000078106809</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>485.9676190549</v>
+        <v>106.766080895838</v>
       </c>
       <c r="C396" t="n">
-        <v>142.598958296285</v>
+        <v>9.317908725712087</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>488.3585005592</v>
+        <v>106.1319969745104</v>
       </c>
       <c r="C397" t="n">
-        <v>137.3239850741917</v>
+        <v>5.821742724025128</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>490.748495649</v>
+        <v>106.1319969745104</v>
       </c>
       <c r="C398" t="n">
-        <v>136.5631586875089</v>
+        <v>6.38835112217582</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>491.3458559962</v>
+        <v>106.1319969745104</v>
       </c>
       <c r="C399" t="n">
-        <v>127.8135684057189</v>
+        <v>7.750255849882677</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>495.5258292124</v>
+        <v>106.1319969745104</v>
       </c>
       <c r="C400" t="n">
-        <v>137.1058849862687</v>
+        <v>6.596851444099357</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>496.12274705</v>
+        <v>106.1319969745104</v>
       </c>
       <c r="C401" t="n">
-        <v>137.9975474822238</v>
+        <v>7.269454557119076</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>500.2996249926</v>
+        <v>105.4978506768976</v>
       </c>
       <c r="C402" t="n">
-        <v>133.8683402930354</v>
+        <v>10.39048142799085</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>500.8961009757</v>
+        <v>105.4978506768976</v>
       </c>
       <c r="C403" t="n">
-        <v>134.167726220602</v>
+        <v>9.288787055742631</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>500.8961009757</v>
+        <v>104.8636419911122</v>
       </c>
       <c r="C404" t="n">
-        <v>180.4343522976607</v>
+        <v>6.344666863146657</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>502.0888873945</v>
+        <v>103.5950374053304</v>
       </c>
       <c r="C405" t="n">
-        <v>146.2080684414313</v>
+        <v>7.930340928629519</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>503.2814531517</v>
+        <v>102.3261831187118</v>
       </c>
       <c r="C406" t="n">
-        <v>146.8101667436157</v>
+        <v>8.946127628205005</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>509.2409748686</v>
+        <v>102.3261831187118</v>
       </c>
       <c r="C407" t="n">
-        <v>142.3095048775457</v>
+        <v>7.644574143705043</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>509.8366241351</v>
+        <v>102.3261831187118</v>
       </c>
       <c r="C408" t="n">
-        <v>157.750199317991</v>
+        <v>7.156093197164637</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>510.4322183687</v>
+        <v>101.0570790330968</v>
       </c>
       <c r="C409" t="n">
-        <v>138.5768964697469</v>
+        <v>8.382589528503999</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>510.4322183687</v>
+        <v>101.0570790330968</v>
       </c>
       <c r="C410" t="n">
-        <v>149.0650235080164</v>
+        <v>8.648087072233409</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>512.8140451765</v>
+        <v>101.0570790330968</v>
       </c>
       <c r="C411" t="n">
-        <v>150.2865926501008</v>
+        <v>7.8630940886231</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>516.3851361267</v>
+        <v>100.422433284926</v>
       </c>
       <c r="C412" t="n">
-        <v>144.398314713917</v>
+        <v>6.862850007741571</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>517.5750602985</v>
+        <v>100.422433284926</v>
       </c>
       <c r="C413" t="n">
-        <v>150.1250891612573</v>
+        <v>6.632080834097721</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>518.1699400278</v>
+        <v>100.422433284926</v>
       </c>
       <c r="C414" t="n">
-        <v>151.0689988678159</v>
+        <v>9.450173914083621</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>520.5489101377</v>
+        <v>100.422433284926</v>
       </c>
       <c r="C415" t="n">
-        <v>141.918195673061</v>
+        <v>7.592631084731067</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>521.1435155139</v>
+        <v>99.78772504997664</v>
       </c>
       <c r="C416" t="n">
-        <v>150.1516640283936</v>
+        <v>9.436702537488983</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>524.7099964801999</v>
+        <v>99.78772504997664</v>
       </c>
       <c r="C417" t="n">
-        <v>155.791761322276</v>
+        <v>7.575453215673534</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>526.4924973023</v>
+        <v>99.78772504997664</v>
       </c>
       <c r="C418" t="n">
-        <v>149.6685896214103</v>
+        <v>6.38808308660488</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>530.6497501319</v>
+        <v>99.15295431614717</v>
       </c>
       <c r="C419" t="n">
-        <v>149.5269696606764</v>
+        <v>8.072819880975885</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>531.8370443948</v>
+        <v>98.51812107106313</v>
       </c>
       <c r="C420" t="n">
-        <v>154.0725975242206</v>
+        <v>5.921049453945912</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>532.4306095333</v>
+        <v>97.88322530240849</v>
       </c>
       <c r="C421" t="n">
-        <v>157.3001312017687</v>
+        <v>7.272907369161018</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>534.2109770978</v>
+        <v>97.88322530240849</v>
       </c>
       <c r="C422" t="n">
-        <v>153.2605266819013</v>
+        <v>11.98100066606649</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>534.8043237025</v>
+        <v>96.61324614505411</v>
       </c>
       <c r="C423" t="n">
-        <v>156.207460574065</v>
+        <v>5.855270830254568</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>538.9562214652</v>
+        <v>96.61324614505411</v>
       </c>
       <c r="C424" t="n">
-        <v>154.4003854478433</v>
+        <v>5.464422476494036</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>538.9562214652</v>
+        <v>94.70780817394153</v>
       </c>
       <c r="C425" t="n">
-        <v>169.8875801481523</v>
+        <v>5.790018259891482</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>541.3275344153</v>
+        <v>94.70780817394153</v>
       </c>
       <c r="C426" t="n">
-        <v>171.1686653106215</v>
+        <v>7.185954472081846</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>546.6598014019</v>
+        <v>94.70780817394153</v>
       </c>
       <c r="C427" t="n">
-        <v>163.1715178697345</v>
+        <v>8.775297178293584</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>547.8441508783</v>
+        <v>94.07253700493303</v>
       </c>
       <c r="C428" t="n">
-        <v>160.6193483342318</v>
+        <v>5.768387783105879</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>551.9876613533</v>
+        <v>93.88194344598628</v>
       </c>
       <c r="C429" t="n">
-        <v>166.6709441248488</v>
+        <v>4.921321155203742</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>553.7626365879</v>
+        <v>93.818411007344</v>
       </c>
       <c r="C430" t="n">
-        <v>168.8555539415382</v>
+        <v>5.145534882665601</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>569.1253174367</v>
+        <v>93.43720322616646</v>
       </c>
       <c r="C431" t="n">
-        <v>176.2311491720768</v>
+        <v>6.185479200665725</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>571.4855606418</v>
+        <v>92.80180682500034</v>
       </c>
       <c r="C432" t="n">
-        <v>176.4176864840603</v>
+        <v>7.391177921595926</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>577.9717771509</v>
+        <v>92.16634778941875</v>
       </c>
       <c r="C433" t="n">
-        <v>174.4497993750239</v>
+        <v>5.70386826302915</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>580.3287841907</v>
+        <v>92.16634778941875</v>
       </c>
       <c r="C434" t="n">
-        <v>185.0975045452185</v>
+        <v>5.920428146672677</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>587.983110739</v>
+        <v>91.53082610673195</v>
       </c>
       <c r="C435" t="n">
-        <v>184.295413430372</v>
+        <v>7.100828506178033</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>590.3364608362</v>
+        <v>91.53082610673195</v>
       </c>
       <c r="C436" t="n">
-        <v>195.0174081877311</v>
+        <v>6.126003776130176</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>597.9789207498</v>
+        <v>90.25959475142153</v>
       </c>
       <c r="C437" t="n">
-        <v>191.2361019991272</v>
+        <v>6.564598606556856</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>600.9159175577</v>
+        <v>90.25959475142153</v>
       </c>
       <c r="C438" t="n">
-        <v>195.2804466601074</v>
+        <v>17.3417046117939</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>603.8515768744001</v>
+        <v>89.62388505389819</v>
       </c>
       <c r="C439" t="n">
-        <v>199.5557383990818</v>
+        <v>7.05066101327462</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>612.6505420451</v>
+        <v>89.62388505389819</v>
       </c>
       <c r="C440" t="n">
-        <v>200.0277179146529</v>
+        <v>5.209280366202208</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>614.4088947902</v>
+        <v>88.98811266005161</v>
       </c>
       <c r="C441" t="n">
-        <v>345.478558131758</v>
+        <v>6.77862801767975</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>616.1667680498</v>
+        <v>87.71637973390479</v>
       </c>
       <c r="C442" t="n">
-        <v>197.8565035448724</v>
+        <v>5.140860657446964</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>629.0432124987</v>
+        <v>87.58919264149397</v>
       </c>
       <c r="C443" t="n">
-        <v>209.5465640712661</v>
+        <v>5.097304683870817</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>632.5505108345</v>
+        <v>87.33481092840663</v>
       </c>
       <c r="C444" t="n">
-        <v>207.968619008526</v>
+        <v>4.293452637175676</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>649.4756041911</v>
+        <v>87.08041917675031</v>
       </c>
       <c r="C445" t="n">
-        <v>219.0889391586188</v>
+        <v>6.229125275090823</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>662.2857531095</v>
+        <v>87.08041917675031</v>
       </c>
       <c r="C446" t="n">
-        <v>242.5053175672167</v>
+        <v>5.75794906455836</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>723.0768533167</v>
+        <v>87.08041917675031</v>
       </c>
       <c r="C447" t="n">
-        <v>277.940275964257</v>
+        <v>5.118173395917665</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>754.6924840344</v>
+        <v>87.08041917675031</v>
       </c>
       <c r="C448" t="n">
-        <v>299.3876538026638</v>
+        <v>5.534685456610461</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>762.1426679428999</v>
+        <v>86.44439587373357</v>
       </c>
       <c r="C449" t="n">
-        <v>300.2376491957486</v>
+        <v>6.457614200514683</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>766.7231205255</v>
+        <v>86.44439587373357</v>
       </c>
       <c r="C450" t="n">
-        <v>308.9257819503161</v>
+        <v>6.968615259715506</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>796.4169933373</v>
+        <v>86.44439587373357</v>
       </c>
       <c r="C451" t="n">
-        <v>330.7793115086433</v>
+        <v>6.710454056647379</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>853.1389975034</v>
+        <v>86.44439587373357</v>
       </c>
       <c r="C452" t="n">
-        <v>379.2390982439757</v>
+        <v>7.231529887413785</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>853.7037046285</v>
+        <v>86.44439587373357</v>
       </c>
       <c r="C453" t="n">
-        <v>390.8473543767565</v>
+        <v>5.970579671376228</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>869.4954533042001</v>
+        <v>85.80830981260046</v>
       </c>
       <c r="C454" t="n">
-        <v>403.893923280816</v>
+        <v>5.072983213647149</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>883.0005158877</v>
+        <v>85.17216098073727</v>
       </c>
       <c r="C455" t="n">
-        <v>398.3990593030769</v>
+        <v>7.468933176598725</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>895.3553512755</v>
+        <v>85.17216098073727</v>
       </c>
       <c r="C456" t="n">
-        <v>464.0347270171284</v>
+        <v>5.050482134614455</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>907.6865533668</v>
+        <v>85.17216098073727</v>
       </c>
       <c r="C457" t="n">
-        <v>449.9490711501928</v>
+        <v>6.174217367417427</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>924.4639052037001</v>
+        <v>85.17216098073727</v>
       </c>
       <c r="C458" t="n">
-        <v>433.6856256940026</v>
+        <v>6.174217367417427</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>933.3940042001</v>
+        <v>84.53594936586002</v>
       </c>
       <c r="C459" t="n">
-        <v>458.8677435120903</v>
+        <v>6.920355464178144</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>936.7396045773</v>
+        <v>84.53594936586002</v>
       </c>
       <c r="C460" t="n">
-        <v>473.3433436973938</v>
+        <v>5.913548135101934</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>946.2093873212</v>
+        <v>84.53594936586002</v>
       </c>
       <c r="C461" t="n">
-        <v>459.9830513568838</v>
+        <v>5.451760757820239</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>948.991972154</v>
+        <v>83.9633052227727</v>
       </c>
       <c r="C462" t="n">
-        <v>516.3393667335042</v>
+        <v>4.756632013574063</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>961.7764149032</v>
+        <v>83.89967495564147</v>
       </c>
       <c r="C463" t="n">
-        <v>512.6745026633241</v>
+        <v>5.213101021165883</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>967.8817626412</v>
+        <v>83.26333773758259</v>
       </c>
       <c r="C464" t="n">
-        <v>630.9034517725911</v>
+        <v>4.983366296709946</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>970.6550103425</v>
+        <v>83.26333773758259</v>
       </c>
       <c r="C465" t="n">
-        <v>490.7961262484844</v>
+        <v>6.627060533985016</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>973.4270655054</v>
+        <v>83.26333773758259</v>
       </c>
       <c r="C466" t="n">
-        <v>553.8283684258288</v>
+        <v>5.191725180282063</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>982.2896401024</v>
+        <v>83.26333773758259</v>
       </c>
       <c r="C467" t="n">
-        <v>499.0545970267241</v>
+        <v>8.538695693068263</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>986.7163624615</v>
+        <v>83.26333773758259</v>
       </c>
       <c r="C468" t="n">
-        <v>545.6166941513908</v>
+        <v>5.410740062004024</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>991.6927942941001</v>
+        <v>82.88150525387265</v>
       </c>
       <c r="C469" t="n">
-        <v>507.0276869161245</v>
+        <v>4.869974040597427</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1000.5303097656</v>
+        <v>82.81786430766967</v>
       </c>
       <c r="C470" t="n">
-        <v>498.9695125251834</v>
+        <v>4.751831609800263</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1001.082252416</v>
+        <v>82.62693769932623</v>
       </c>
       <c r="C471" t="n">
-        <v>579.5997152361116</v>
+        <v>8.526281500596028</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1006.0476108402</v>
+        <v>82.62693769932623</v>
       </c>
       <c r="C472" t="n">
-        <v>532.9983271364854</v>
+        <v>5.170421351590164</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1006.5990813211</v>
+        <v>82.62693769932623</v>
       </c>
       <c r="C473" t="n">
-        <v>615.4987300915393</v>
+        <v>6.353516767621969</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1014.8654823454</v>
+        <v>82.18142028795474</v>
       </c>
       <c r="C474" t="n">
-        <v>525.1752092348291</v>
+        <v>4.7862126896608</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1014.8654823454</v>
+        <v>81.99047482852286</v>
       </c>
       <c r="C475" t="n">
-        <v>525.9079415944863</v>
+        <v>7.395954792011594</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1033.0143377412</v>
+        <v>81.79952371303983</v>
       </c>
       <c r="C476" t="n">
-        <v>549.7545182252762</v>
+        <v>4.566681085822907</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1041.2469566909</v>
+        <v>81.35394911268079</v>
       </c>
       <c r="C477" t="n">
-        <v>574.0071416757506</v>
+        <v>6.841590716791799</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1054.3973174238</v>
+        <v>81.35394911268079</v>
       </c>
       <c r="C478" t="n">
-        <v>554.4400691007155</v>
+        <v>5.58084051825962</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1056.0392279091</v>
+        <v>81.35394911268079</v>
       </c>
       <c r="C479" t="n">
-        <v>680.1529498243482</v>
+        <v>6.578030378968208</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1057.680720304</v>
+        <v>81.35394911268079</v>
       </c>
       <c r="C480" t="n">
-        <v>584.0297682569214</v>
+        <v>6.578030378968208</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1058.2277915635</v>
+        <v>81.35394911268079</v>
       </c>
       <c r="C481" t="n">
-        <v>601.9032761593295</v>
+        <v>6.319486827714314</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1061.509244514</v>
+        <v>81.22663642700333</v>
       </c>
       <c r="C482" t="n">
-        <v>703.1030797613092</v>
+        <v>4.811151305608533</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1062.6026910745</v>
+        <v>81.09932122692106</v>
       </c>
       <c r="C483" t="n">
-        <v>587.9374176630151</v>
+        <v>4.558454056665681</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1066.974623546</v>
+        <v>81.03566268398845</v>
       </c>
       <c r="C484" t="n">
-        <v>658.4289935756228</v>
+        <v>4.784481783344276</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1068.0671435354</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C485" t="n">
-        <v>572.5966384433485</v>
+        <v>5.329619627070585</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1099.669947304</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C486" t="n">
-        <v>616.3489459444634</v>
+        <v>6.302600750148727</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1105.1030822081</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C487" t="n">
-        <v>729.6876520945301</v>
+        <v>5.106951889737928</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1118.6659194899</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C488" t="n">
-        <v>619.4099802354782</v>
+        <v>5.80166185260002</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1133.8224968893</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C489" t="n">
-        <v>640.2959618698557</v>
+        <v>6.048957077124271</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1137.6060797149</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C490" t="n">
-        <v>818.8256205746069</v>
+        <v>4.599536946508536</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1188.7363287528</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C491" t="n">
-        <v>698.9325632386759</v>
+        <v>5.329619627070585</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1221.3548102841</v>
+        <v>80.71736053936117</v>
       </c>
       <c r="C492" t="n">
-        <v>740.4283200975319</v>
+        <v>7.094751672031109</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1224.5542879817</v>
+        <v>80.20804441510992</v>
       </c>
       <c r="C493" t="n">
-        <v>765.6528291163212</v>
+        <v>4.580781747495536</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1239.4642233497</v>
+        <v>80.20804441510992</v>
       </c>
       <c r="C494" t="n">
-        <v>827.0559464770324</v>
+        <v>4.525191321738205</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1250.093103222</v>
+        <v>80.08070909625854</v>
       </c>
       <c r="C495" t="n">
-        <v>869.9519275961223</v>
+        <v>5.542361390787647</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1287.1567776217</v>
+        <v>80.08070909625854</v>
       </c>
       <c r="C496" t="n">
-        <v>947.3177719307555</v>
+        <v>7.909670863392208</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1331.424775438</v>
+        <v>80.08070909625854</v>
       </c>
       <c r="C497" t="n">
-        <v>2445.761567356622</v>
+        <v>12.63714203361356</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1389.0193842806</v>
+        <v>80.08070909625854</v>
       </c>
       <c r="C498" t="n">
-        <v>2501.030163669175</v>
+        <v>7.079977739729173</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1588.3182487169</v>
+        <v>80.08070909625854</v>
       </c>
       <c r="C499" t="n">
-        <v>2160.000530342887</v>
+        <v>5.309537055383089</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1625.9421129063</v>
+        <v>80.08070909625854</v>
       </c>
       <c r="C500" t="n">
-        <v>2046.282344224247</v>
+        <v>5.085946128367695</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1644.4059864107</v>
+        <v>79.50766903345914</v>
       </c>
       <c r="C501" t="n">
-        <v>2171.594757132211</v>
+        <v>4.631624303677754</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1675.2814957694</v>
+        <v>79.44399477089709</v>
       </c>
       <c r="C502" t="n">
-        <v>1941.985616279091</v>
+        <v>7.61633867776365</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1878.3168476935</v>
+        <v>79.44399477089709</v>
       </c>
       <c r="C503" t="n">
-        <v>2743.116432663116</v>
+        <v>5.289535488443519</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>2458.8272288139</v>
+        <v>79.44399477089709</v>
       </c>
       <c r="C504" t="n">
-        <v>2418.664982617212</v>
+        <v>5.289535488443519</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>2686.5611922753</v>
+        <v>79.44399477089709</v>
       </c>
       <c r="C505" t="n">
-        <v>2714.617187908689</v>
+        <v>5.289535488443519</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>2698.2127171784</v>
+        <v>79.38031987931043</v>
       </c>
       <c r="C506" t="n">
-        <v>2735.30862380416</v>
+        <v>4.569339361520647</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>2788.1546447479</v>
+        <v>79.25296820940247</v>
       </c>
       <c r="C507" t="n">
-        <v>2713.402740501167</v>
+        <v>3.948966193153638</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>UK014</t>
+          <t>UK024</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>3058.2961867135</v>
+        <v>79.12561402348032</v>
       </c>
       <c r="C508" t="n">
-        <v>2374.864754904292</v>
+        <v>4.376837011500456</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>78.80721755083677</v>
+      </c>
+      <c r="C509" t="n">
+        <v>5.044166929546805</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>78.80721755083677</v>
+      </c>
+      <c r="C510" t="n">
+        <v>5.996551837945944</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>78.80721755083677</v>
+      </c>
+      <c r="C511" t="n">
+        <v>7.602900892808975</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>78.80721755083677</v>
+      </c>
+      <c r="C512" t="n">
+        <v>5.269615941627109</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>78.80721755083677</v>
+      </c>
+      <c r="C513" t="n">
+        <v>6.252467371750228</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>78.55248904948363</v>
+      </c>
+      <c r="C514" t="n">
+        <v>4.235629337302171</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>78.48880535140727</v>
+      </c>
+      <c r="C515" t="n">
+        <v>4.352645545284247</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>78.29775048219746</v>
+      </c>
+      <c r="C516" t="n">
+        <v>4.49182798191886</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C517" t="n">
+        <v>6.498051401644645</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C518" t="n">
+        <v>9.3137257350417</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C519" t="n">
+        <v>7.311172675736699</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C520" t="n">
+        <v>6.498051401644645</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C521" t="n">
+        <v>5.249779441818418</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C522" t="n">
+        <v>6.235933803317181</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C523" t="n">
+        <v>5.023395619136906</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>78.17037742358582</v>
+      </c>
+      <c r="C524" t="n">
+        <v>5.97925990620665</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>77.72455189826239</v>
+      </c>
+      <c r="C525" t="n">
+        <v>4.708789307139824</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C526" t="n">
+        <v>5.002704609356357</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C527" t="n">
+        <v>4.785739860870507</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C528" t="n">
+        <v>4.743715850868099</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C529" t="n">
+        <v>5.962057635306763</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C530" t="n">
+        <v>5.710752502929566</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C531" t="n">
+        <v>5.962057635306763</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C532" t="n">
+        <v>6.219490328715366</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>77.53347437688781</v>
+      </c>
+      <c r="C533" t="n">
+        <v>5.002704609356357</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>77.34239119174586</v>
+      </c>
+      <c r="C534" t="n">
+        <v>4.400388935574625</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>77.2149992548589</v>
+      </c>
+      <c r="C535" t="n">
+        <v>4.102349288156205</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>77.08760480042159</v>
+      </c>
+      <c r="C536" t="n">
+        <v>4.625191072942528</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>77.02390662908127</v>
+      </c>
+      <c r="C537" t="n">
+        <v>4.426257761127033</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>77.02390662908127</v>
+      </c>
+      <c r="C538" t="n">
+        <v>4.562513742347718</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>76.96020782835848</v>
+      </c>
+      <c r="C539" t="n">
+        <v>3.986214648947424</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C540" t="n">
+        <v>6.46668493042128</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C541" t="n">
+        <v>5.944945886059472</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C542" t="n">
+        <v>5.692835557330525</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C543" t="n">
+        <v>6.203137743503532</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C544" t="n">
+        <v>5.944945886059472</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C545" t="n">
+        <v>5.210359749269017</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>76.89650839825069</v>
+      </c>
+      <c r="C546" t="n">
+        <v>5.210359749269017</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>76.83280833862523</v>
+      </c>
+      <c r="C547" t="n">
+        <v>4.219658611088775</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>76.51429859852378</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3.968063754451492</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>76.38689029585436</v>
+      </c>
+      <c r="C549" t="n">
+        <v>4.519981277533645</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>76.25947947509523</v>
+      </c>
+      <c r="C550" t="n">
+        <v>6.451138573986924</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>76.19577312034291</v>
+      </c>
+      <c r="C551" t="n">
+        <v>4.094222770422206</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>76.13206613605487</v>
+      </c>
+      <c r="C552" t="n">
+        <v>4.674822822232812</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>75.87723190272243</v>
+      </c>
+      <c r="C553" t="n">
+        <v>3.818997625354399</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>75.62238759512566</v>
+      </c>
+      <c r="C554" t="n">
+        <v>4.72120058560607</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>75.62238759512566</v>
+      </c>
+      <c r="C555" t="n">
+        <v>5.910997425820185</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>75.62238759512566</v>
+      </c>
+      <c r="C556" t="n">
+        <v>4.941124444314283</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>75.62238759512566</v>
+      </c>
+      <c r="C557" t="n">
+        <v>4.941124444314283</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>75.55867494401063</v>
+      </c>
+      <c r="C558" t="n">
+        <v>4.634245352585893</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>75.55867494401063</v>
+      </c>
+      <c r="C559" t="n">
+        <v>4.315891297340045</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>UK024</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>75.04895106481463</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4.04932680573198</v>
       </c>
     </row>
   </sheetData>

--- a/data/ages_errors_calculated.xlsx
+++ b/data/ages_errors_calculated.xlsx
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3025.641855434486</v>
+        <v>3072.051250592643</v>
       </c>
       <c r="C2" t="n">
-        <v>110.8557826388455</v>
+        <v>110.4162943388196</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2671.730132763171</v>
+        <v>2719.61491161682</v>
       </c>
       <c r="C3" t="n">
-        <v>95.17464794066109</v>
+        <v>94.74019760969304</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2518.108156089402</v>
+        <v>2566.702677368654</v>
       </c>
       <c r="C4" t="n">
-        <v>109.6019602496781</v>
+        <v>109.067654123427</v>
       </c>
     </row>
     <row r="5">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2697.108608896615</v>
+        <v>2744.880363601355</v>
       </c>
       <c r="C5" t="n">
-        <v>75.36291176269742</v>
+        <v>75.02382620316575</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2676.137963352323</v>
+        <v>2724.003027639434</v>
       </c>
       <c r="C6" t="n">
-        <v>98.74200783318838</v>
+        <v>98.29175387152873</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2810.456383942319</v>
+        <v>2857.737380393959</v>
       </c>
       <c r="C7" t="n">
-        <v>118.4536642819335</v>
+        <v>117.9402606970325</v>
       </c>
     </row>
     <row r="8">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2625.978099896781</v>
+        <v>2674.069619244212</v>
       </c>
       <c r="C8" t="n">
-        <v>108.6739260764975</v>
+        <v>108.1670912807062</v>
       </c>
     </row>
     <row r="9">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2595.576512930777</v>
+        <v>2643.807560029058</v>
       </c>
       <c r="C9" t="n">
-        <v>107.0459836478208</v>
+        <v>106.5406700604794</v>
       </c>
     </row>
     <row r="10">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2649.485144761677</v>
+        <v>2697.469960109578</v>
       </c>
       <c r="C10" t="n">
-        <v>112.9405827999985</v>
+        <v>112.4184249422105</v>
       </c>
     </row>
     <row r="11">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.614742681012</v>
+        <v>2278.674148800817</v>
       </c>
       <c r="C11" t="n">
-        <v>117.9817140112268</v>
+        <v>117.333143203517</v>
       </c>
     </row>
     <row r="12">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1928.725704480579</v>
+        <v>1980.497015977507</v>
       </c>
       <c r="C12" t="n">
-        <v>130.0985633321147</v>
+        <v>129.2881534066698</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1806.028675557509</v>
+        <v>1858.563128864974</v>
       </c>
       <c r="C13" t="n">
-        <v>117.141020851551</v>
+        <v>116.3759484393393</v>
       </c>
     </row>
     <row r="14">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1717.081503331234</v>
+        <v>1770.193541444429</v>
       </c>
       <c r="C14" t="n">
-        <v>133.1890349125001</v>
+        <v>132.2841217718235</v>
       </c>
     </row>
     <row r="15">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2493.3310514613</v>
+        <v>2542.044274517867</v>
       </c>
       <c r="C15" t="n">
-        <v>94.35483232177148</v>
+        <v>93.89162811493634</v>
       </c>
     </row>
     <row r="16">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2597.437477146128</v>
+        <v>2645.659933496998</v>
       </c>
       <c r="C16" t="n">
-        <v>99.75483633530575</v>
+        <v>99.28500428587859</v>
       </c>
     </row>
     <row r="17">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1717.081503331234</v>
+        <v>1770.193541444429</v>
       </c>
       <c r="C17" t="n">
-        <v>124.526004408581</v>
+        <v>123.6814502946445</v>
       </c>
     </row>
     <row r="18">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1715.383233187335</v>
+        <v>1768.506503930825</v>
       </c>
       <c r="C18" t="n">
-        <v>157.2657258338172</v>
+        <v>156.1912000440261</v>
       </c>
     </row>
     <row r="19">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2103.409787396366</v>
+        <v>2154.158497698446</v>
       </c>
       <c r="C20" t="n">
-        <v>111.1724516146421</v>
+        <v>110.5301175239406</v>
       </c>
     </row>
     <row r="21">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1640.46984227073</v>
+        <v>1694.096402980307</v>
       </c>
       <c r="C21" t="n">
-        <v>126.0307184631004</v>
+        <v>125.1486714083071</v>
       </c>
     </row>
     <row r="22">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1801.22415217026</v>
+        <v>1853.789272167813</v>
       </c>
       <c r="C22" t="n">
-        <v>117.6947792444903</v>
+        <v>116.9244973969526</v>
       </c>
     </row>
     <row r="23">
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1083.343013677546</v>
+        <v>1507.264949860935</v>
       </c>
       <c r="C44" t="n">
-        <v>73.91419616947769</v>
+        <v>300.7760900992207</v>
       </c>
     </row>
     <row r="45">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2212.932153235949</v>
+        <v>2263.07597718635</v>
       </c>
       <c r="C60" t="n">
-        <v>151.4648637619553</v>
+        <v>150.6210631004269</v>
       </c>
     </row>
     <row r="61">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4415.744470140885</v>
+        <v>4458.022641641485</v>
       </c>
       <c r="C193" t="n">
-        <v>91.46408612354389</v>
+        <v>91.25625451668566</v>
       </c>
     </row>
     <row r="194">
